--- a/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/vibe/[vibe]20220502_20220508_mean_outliers.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-02_2022-05-08/vibe/[vibe]20220502_20220508_mean_outliers.xlsx
@@ -46,7 +46,7 @@
     <t>순위변동평균(양수)</t>
   </si>
   <si>
-    <t>2022-05-02</t>
+    <t>2022-05-03</t>
   </si>
   <si>
     <t>vibe</t>
@@ -465,7 +465,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -483,7 +483,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J2">
         <v>32</v>
